--- a/data/pca/factorExposure/factorExposure_2018-05-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01452098972657922</v>
+        <v>-0.01877043345776441</v>
       </c>
       <c r="C2">
-        <v>0.03228775417582889</v>
+        <v>0.01668510804469358</v>
       </c>
       <c r="D2">
-        <v>-0.01091247612355244</v>
+        <v>0.02959836717538936</v>
       </c>
       <c r="E2">
-        <v>-0.01841727586270238</v>
+        <v>0.01609740664728981</v>
       </c>
       <c r="F2">
-        <v>-0.1115344791414484</v>
+        <v>-0.006273289810518694</v>
       </c>
       <c r="G2">
-        <v>-0.07316246972991058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.04584252159916549</v>
+      </c>
+      <c r="H2">
+        <v>0.04756432208565288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08900060687981129</v>
+        <v>-0.08094054377489274</v>
       </c>
       <c r="C3">
-        <v>0.02169634212170625</v>
+        <v>-0.01572919285877339</v>
       </c>
       <c r="D3">
-        <v>-0.06525937611872371</v>
+        <v>0.05720445785963816</v>
       </c>
       <c r="E3">
-        <v>-0.08914124063256916</v>
+        <v>0.01652054146657822</v>
       </c>
       <c r="F3">
-        <v>-0.4147442519572108</v>
+        <v>0.006108367881660135</v>
       </c>
       <c r="G3">
-        <v>-0.2261045748024737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1729147327856255</v>
+      </c>
+      <c r="H3">
+        <v>0.1514356542080119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04165276492865877</v>
+        <v>-0.04688448275402395</v>
       </c>
       <c r="C4">
-        <v>0.008226136424920543</v>
+        <v>0.001164521521316206</v>
       </c>
       <c r="D4">
-        <v>0.008245010635071976</v>
+        <v>0.0565995164298514</v>
       </c>
       <c r="E4">
-        <v>0.04386000816005812</v>
+        <v>-0.01757490346168495</v>
       </c>
       <c r="F4">
-        <v>-0.08018730533616046</v>
+        <v>-0.04708376336140017</v>
       </c>
       <c r="G4">
-        <v>-0.04352584071430804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03896042573628683</v>
+      </c>
+      <c r="H4">
+        <v>0.05785930955599679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02867136584193523</v>
+        <v>-0.02796447229959351</v>
       </c>
       <c r="C6">
-        <v>0.01271404237516166</v>
+        <v>-0.001638237771476583</v>
       </c>
       <c r="D6">
-        <v>-0.003031634367671885</v>
+        <v>0.05897601297512983</v>
       </c>
       <c r="E6">
-        <v>0.02001764714738963</v>
+        <v>-0.003989678396543629</v>
       </c>
       <c r="F6">
-        <v>-0.01257105912233875</v>
+        <v>-0.03086298076852673</v>
       </c>
       <c r="G6">
-        <v>0.01284050740582936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0107967694974617</v>
+      </c>
+      <c r="H6">
+        <v>0.06223919271298652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01923868037143865</v>
+        <v>-0.02242342980665226</v>
       </c>
       <c r="C7">
-        <v>0.009294560187594808</v>
+        <v>0.0006066906433551257</v>
       </c>
       <c r="D7">
-        <v>-0.01234282821294249</v>
+        <v>0.0295411361500053</v>
       </c>
       <c r="E7">
-        <v>0.02337196827525899</v>
+        <v>-0.04157823154151093</v>
       </c>
       <c r="F7">
-        <v>-0.04930332229404129</v>
+        <v>-0.00431510704011637</v>
       </c>
       <c r="G7">
-        <v>-0.06755617265501895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02510312598081848</v>
+      </c>
+      <c r="H7">
+        <v>0.03824698210760484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01602456229295589</v>
+        <v>-0.007245215153268657</v>
       </c>
       <c r="C8">
-        <v>0.01695317260767913</v>
+        <v>-0.002821049481938033</v>
       </c>
       <c r="D8">
-        <v>-0.006875471094680956</v>
+        <v>0.01226003906453471</v>
       </c>
       <c r="E8">
-        <v>0.03002810754088034</v>
+        <v>-0.005358007291177292</v>
       </c>
       <c r="F8">
-        <v>-0.09876426506516042</v>
+        <v>-0.01925559726501619</v>
       </c>
       <c r="G8">
-        <v>-0.05598321945398651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.03950971126027902</v>
+      </c>
+      <c r="H8">
+        <v>0.04219646869591501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03304282127287264</v>
+        <v>-0.03683252514774021</v>
       </c>
       <c r="C9">
-        <v>0.01636703791827257</v>
+        <v>-0.001436861948695943</v>
       </c>
       <c r="D9">
-        <v>-0.0008957082818184862</v>
+        <v>0.04127769012745567</v>
       </c>
       <c r="E9">
-        <v>0.03248980631700187</v>
+        <v>-0.006654223799133563</v>
       </c>
       <c r="F9">
-        <v>-0.09388335463465733</v>
+        <v>-0.02392329877016482</v>
       </c>
       <c r="G9">
-        <v>-0.04713604699203195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04693766496414946</v>
+      </c>
+      <c r="H9">
+        <v>0.05612436158609629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03781872737987672</v>
+        <v>-0.1038048030700695</v>
       </c>
       <c r="C10">
-        <v>-0.07866488438101076</v>
+        <v>0.0001303975627862044</v>
       </c>
       <c r="D10">
-        <v>0.06190289544863218</v>
+        <v>-0.1687916121833533</v>
       </c>
       <c r="E10">
-        <v>-0.1257223348982479</v>
+        <v>0.002163576427263341</v>
       </c>
       <c r="F10">
-        <v>-0.05340099678877568</v>
+        <v>0.03434881110914943</v>
       </c>
       <c r="G10">
-        <v>-0.009785930850489961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02994200225143645</v>
+      </c>
+      <c r="H10">
+        <v>0.002615968744580771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03096718683273261</v>
+        <v>-0.02330867398237547</v>
       </c>
       <c r="C11">
-        <v>0.02889627450508219</v>
+        <v>-0.01259805387091913</v>
       </c>
       <c r="D11">
-        <v>-0.01095545562589943</v>
+        <v>0.044910427388746</v>
       </c>
       <c r="E11">
-        <v>0.02218115977157566</v>
+        <v>0.001921372054320409</v>
       </c>
       <c r="F11">
-        <v>-0.04596639094362811</v>
+        <v>-0.01214583123011909</v>
       </c>
       <c r="G11">
-        <v>-0.02487066392643863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0268629544222221</v>
+      </c>
+      <c r="H11">
+        <v>0.04937956518731204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03842543934742778</v>
+        <v>-0.02779334350702549</v>
       </c>
       <c r="C12">
-        <v>0.0279756690651075</v>
+        <v>-0.009065346025636902</v>
       </c>
       <c r="D12">
-        <v>-0.003655875931715346</v>
+        <v>0.04404448016222443</v>
       </c>
       <c r="E12">
-        <v>0.03271139244026446</v>
+        <v>-0.008159335962205722</v>
       </c>
       <c r="F12">
-        <v>-0.025624421952708</v>
+        <v>-0.0152399109393512</v>
       </c>
       <c r="G12">
-        <v>-0.0140555788667245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.008241361888232606</v>
+      </c>
+      <c r="H12">
+        <v>0.02182687803790197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0139318227980695</v>
+        <v>-0.02901979070122628</v>
       </c>
       <c r="C13">
-        <v>0.02534529783612051</v>
+        <v>0.01247449289248844</v>
       </c>
       <c r="D13">
-        <v>0.003444150084657286</v>
+        <v>0.01746249667762959</v>
       </c>
       <c r="E13">
-        <v>-0.007493532344112003</v>
+        <v>0.01379080132578321</v>
       </c>
       <c r="F13">
-        <v>-0.08291198953724112</v>
+        <v>-0.02250243435670641</v>
       </c>
       <c r="G13">
-        <v>-0.04823798775794867</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06048859906905135</v>
+      </c>
+      <c r="H13">
+        <v>0.07431085218928071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01429532232095999</v>
+        <v>-0.01907397192162973</v>
       </c>
       <c r="C14">
-        <v>0.003617601996438827</v>
+        <v>3.563407907528129e-05</v>
       </c>
       <c r="D14">
-        <v>0.002870325723322397</v>
+        <v>0.01115140542053879</v>
       </c>
       <c r="E14">
-        <v>0.02723025247050156</v>
+        <v>-0.01210667465838964</v>
       </c>
       <c r="F14">
-        <v>-0.06318786653695496</v>
+        <v>-0.01589641631518928</v>
       </c>
       <c r="G14">
-        <v>-0.05365753147490029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04005447307317337</v>
+      </c>
+      <c r="H14">
+        <v>0.01279661975261912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02740150494988586</v>
+        <v>-0.02462771721316389</v>
       </c>
       <c r="C16">
-        <v>0.03191306463635066</v>
+        <v>-0.01194070377939985</v>
       </c>
       <c r="D16">
-        <v>-0.006351681743887178</v>
+        <v>0.03711470663643725</v>
       </c>
       <c r="E16">
-        <v>0.02022349338411614</v>
+        <v>-0.001733804099595794</v>
       </c>
       <c r="F16">
-        <v>-0.04673837069939304</v>
+        <v>-0.01587645818317842</v>
       </c>
       <c r="G16">
-        <v>-0.02377806681486328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02297607531349092</v>
+      </c>
+      <c r="H16">
+        <v>0.03721909742342252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0325497540257362</v>
+        <v>-0.03214007565573961</v>
       </c>
       <c r="C19">
-        <v>0.03084301288969219</v>
+        <v>-0.001422156763927954</v>
       </c>
       <c r="D19">
-        <v>-0.01368710481666137</v>
+        <v>0.03566704854489015</v>
       </c>
       <c r="E19">
-        <v>0.01795510052597962</v>
+        <v>-0.003506423358409326</v>
       </c>
       <c r="F19">
-        <v>-0.09541954083930931</v>
+        <v>-0.02501013258746669</v>
       </c>
       <c r="G19">
-        <v>-0.06309020779796258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05553691319930146</v>
+      </c>
+      <c r="H19">
+        <v>0.06108073555153082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002368321942872449</v>
+        <v>-0.01170260547678387</v>
       </c>
       <c r="C20">
-        <v>0.008265918595526349</v>
+        <v>0.004079062140840329</v>
       </c>
       <c r="D20">
-        <v>0.002178652607853447</v>
+        <v>0.01989072946213</v>
       </c>
       <c r="E20">
-        <v>0.01732678665546902</v>
+        <v>-0.003293971737317178</v>
       </c>
       <c r="F20">
-        <v>-0.07601585195438863</v>
+        <v>-0.0161188166702975</v>
       </c>
       <c r="G20">
-        <v>-0.07883497173077161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05227911291819132</v>
+      </c>
+      <c r="H20">
+        <v>0.02714955682572063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001305604784084009</v>
+        <v>-0.01746079069331812</v>
       </c>
       <c r="C21">
-        <v>-0.01077810059515595</v>
+        <v>0.005342445732806914</v>
       </c>
       <c r="D21">
-        <v>-0.01817285275978274</v>
+        <v>0.02108744129937833</v>
       </c>
       <c r="E21">
-        <v>0.03464860206576959</v>
+        <v>-0.01728014078792385</v>
       </c>
       <c r="F21">
-        <v>-0.04459926769748369</v>
+        <v>-0.01169711668721202</v>
       </c>
       <c r="G21">
-        <v>-0.01116440014024466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04751785078283137</v>
+      </c>
+      <c r="H21">
+        <v>0.04263493522706584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02788451183881272</v>
+        <v>-0.02011103458190479</v>
       </c>
       <c r="C24">
-        <v>0.02732173123605961</v>
+        <v>-0.006576078689888034</v>
       </c>
       <c r="D24">
-        <v>0.0006650201731606108</v>
+        <v>0.04072244614217928</v>
       </c>
       <c r="E24">
-        <v>0.00790513487519541</v>
+        <v>-6.191439837739278e-05</v>
       </c>
       <c r="F24">
-        <v>-0.04187993522610937</v>
+        <v>-0.01095329674568907</v>
       </c>
       <c r="G24">
-        <v>-0.02244245790153243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01720971065765874</v>
+      </c>
+      <c r="H24">
+        <v>0.04594442306747235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02822518695475345</v>
+        <v>-0.03236897188755451</v>
       </c>
       <c r="C25">
-        <v>0.02098961272524589</v>
+        <v>-0.004536776221007243</v>
       </c>
       <c r="D25">
-        <v>-0.01305552040903389</v>
+        <v>0.04127896300067486</v>
       </c>
       <c r="E25">
-        <v>0.02360393026763339</v>
+        <v>-0.005034292116323374</v>
       </c>
       <c r="F25">
-        <v>-0.05075716564398281</v>
+        <v>-0.0192431374639647</v>
       </c>
       <c r="G25">
-        <v>-0.01233991031400447</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02085988542606382</v>
+      </c>
+      <c r="H25">
+        <v>0.04280713225328662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01907202947653506</v>
+        <v>-0.01775671160304662</v>
       </c>
       <c r="C26">
-        <v>0.01706085304496312</v>
+        <v>0.01817406361823545</v>
       </c>
       <c r="D26">
-        <v>-0.0191792541624725</v>
+        <v>0.007708280931162307</v>
       </c>
       <c r="E26">
-        <v>-0.003795902280420306</v>
+        <v>0.000373100145035723</v>
       </c>
       <c r="F26">
-        <v>-0.06512230882636909</v>
+        <v>-0.002274523387173058</v>
       </c>
       <c r="G26">
-        <v>-0.04677592192030876</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03001411989358139</v>
+      </c>
+      <c r="H26">
+        <v>0.02399034643624468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.05190233351775608</v>
+        <v>-0.02072812824591478</v>
       </c>
       <c r="C27">
-        <v>0.02291721998990891</v>
+        <v>-0.007933906977816214</v>
       </c>
       <c r="D27">
-        <v>0.02662724974926538</v>
+        <v>0.0134946089406685</v>
       </c>
       <c r="E27">
-        <v>0.03216747247216874</v>
+        <v>-0.002602046763383571</v>
       </c>
       <c r="F27">
-        <v>-0.04308658694402911</v>
+        <v>-0.01275259717962124</v>
       </c>
       <c r="G27">
-        <v>-0.05092984387410268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.009967376087430344</v>
+      </c>
+      <c r="H27">
+        <v>-0.004321570746936777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06548088641803096</v>
+        <v>-0.1538039149658917</v>
       </c>
       <c r="C28">
-        <v>-0.10537456316977</v>
+        <v>0.009256578429732001</v>
       </c>
       <c r="D28">
-        <v>0.0884225251325647</v>
+        <v>-0.2213773125085627</v>
       </c>
       <c r="E28">
-        <v>-0.1546543830152508</v>
+        <v>-0.006297302252410809</v>
       </c>
       <c r="F28">
-        <v>-0.05615471424830352</v>
+        <v>0.02848002373344391</v>
       </c>
       <c r="G28">
-        <v>-0.005818326415040998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01739695598014377</v>
+      </c>
+      <c r="H28">
+        <v>-0.007114484749305186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01916533104820687</v>
+        <v>-0.02396147956545283</v>
       </c>
       <c r="C29">
-        <v>0.00448063582905791</v>
+        <v>-0.001651603333193868</v>
       </c>
       <c r="D29">
-        <v>0.003925901573445524</v>
+        <v>0.011322312210192</v>
       </c>
       <c r="E29">
-        <v>0.03466344937964645</v>
+        <v>-0.01260960675867319</v>
       </c>
       <c r="F29">
-        <v>-0.06133787739187367</v>
+        <v>-0.01724233285590005</v>
       </c>
       <c r="G29">
-        <v>-0.04270828126056948</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03890937780556445</v>
+      </c>
+      <c r="H29">
+        <v>0.004465334182462624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.07890147605692108</v>
+        <v>-0.05338349380605214</v>
       </c>
       <c r="C30">
-        <v>0.06130094810989847</v>
+        <v>-0.002238733072778895</v>
       </c>
       <c r="D30">
-        <v>0.007864698290541688</v>
+        <v>0.08838133830463854</v>
       </c>
       <c r="E30">
-        <v>0.04732461206182617</v>
+        <v>0.03300960472971989</v>
       </c>
       <c r="F30">
-        <v>-0.1019205136152054</v>
+        <v>-0.04874040926190688</v>
       </c>
       <c r="G30">
-        <v>-0.06753635964230524</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05967179892828286</v>
+      </c>
+      <c r="H30">
+        <v>0.07796572349729172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05828085561915107</v>
+        <v>-0.05027416446625955</v>
       </c>
       <c r="C31">
-        <v>0.03338293724410978</v>
+        <v>-0.01141178567027934</v>
       </c>
       <c r="D31">
-        <v>-0.004651856799417229</v>
+        <v>0.0227961766727572</v>
       </c>
       <c r="E31">
-        <v>0.005959697927654248</v>
+        <v>0.005289268454276894</v>
       </c>
       <c r="F31">
-        <v>-0.04949490264409787</v>
+        <v>-0.004706711762784356</v>
       </c>
       <c r="G31">
-        <v>-0.05300438751154596</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01808090337613287</v>
+      </c>
+      <c r="H31">
+        <v>0.002527433737168858</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01641356635675612</v>
+        <v>-0.01079759752835884</v>
       </c>
       <c r="C32">
-        <v>0.01606522863866885</v>
+        <v>-0.01381006054719523</v>
       </c>
       <c r="D32">
-        <v>-0.006314413875650439</v>
+        <v>0.01072330549578045</v>
       </c>
       <c r="E32">
-        <v>0.06266942833182773</v>
+        <v>-0.0288744167082545</v>
       </c>
       <c r="F32">
-        <v>-0.07502459390449402</v>
+        <v>-0.03967939982401063</v>
       </c>
       <c r="G32">
-        <v>-0.04399515995293443</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03021169932754695</v>
+      </c>
+      <c r="H32">
+        <v>0.05739521304713999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04156088410777455</v>
+        <v>-0.03552065134124962</v>
       </c>
       <c r="C33">
-        <v>0.03990145178965681</v>
+        <v>-0.002042261790452839</v>
       </c>
       <c r="D33">
-        <v>-0.03291804963419909</v>
+        <v>0.03725673627036487</v>
       </c>
       <c r="E33">
-        <v>0.01858557963066925</v>
+        <v>0.02232904221057868</v>
       </c>
       <c r="F33">
-        <v>-0.08067996827950348</v>
+        <v>8.229926375370977e-05</v>
       </c>
       <c r="G33">
-        <v>-0.05949279549095696</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04567603374188128</v>
+      </c>
+      <c r="H33">
+        <v>0.04862797109242494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0268032001997125</v>
+        <v>-0.03005325988030934</v>
       </c>
       <c r="C34">
-        <v>0.02622832442904772</v>
+        <v>-0.02025889433330149</v>
       </c>
       <c r="D34">
-        <v>-0.005900559397215589</v>
+        <v>0.0375088904245755</v>
       </c>
       <c r="E34">
-        <v>0.0270883981193306</v>
+        <v>-0.01170920297093723</v>
       </c>
       <c r="F34">
-        <v>-0.05484271235704511</v>
+        <v>-0.0184924554599787</v>
       </c>
       <c r="G34">
-        <v>-0.0193735500235827</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01442025231434573</v>
+      </c>
+      <c r="H34">
+        <v>0.03633772776845463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01448496221995604</v>
+        <v>-0.01850663559492391</v>
       </c>
       <c r="C36">
-        <v>0.00296187850866658</v>
+        <v>0.005839334752713309</v>
       </c>
       <c r="D36">
-        <v>-0.003832897529832573</v>
+        <v>0.003548678759131202</v>
       </c>
       <c r="E36">
-        <v>0.02097706041796076</v>
+        <v>-0.007295033266320559</v>
       </c>
       <c r="F36">
-        <v>-0.03809433775913682</v>
+        <v>-0.002846425603509231</v>
       </c>
       <c r="G36">
-        <v>-0.03306567734575997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02148837368228947</v>
+      </c>
+      <c r="H36">
+        <v>0.01588552798195718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002438649807039327</v>
+        <v>-0.02657464097763625</v>
       </c>
       <c r="C38">
-        <v>-0.004203433605748032</v>
+        <v>-0.01661962867947982</v>
       </c>
       <c r="D38">
-        <v>-0.01760420833020919</v>
+        <v>0.01189766824183935</v>
       </c>
       <c r="E38">
-        <v>-0.02845499422838756</v>
+        <v>0.0007362995553601678</v>
       </c>
       <c r="F38">
-        <v>-0.03796882937308103</v>
+        <v>-0.01048469397404799</v>
       </c>
       <c r="G38">
-        <v>-0.0120145950399468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02378594688220168</v>
+      </c>
+      <c r="H38">
+        <v>0.04497650195865611</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02802025065582927</v>
+        <v>-0.01922613202725715</v>
       </c>
       <c r="C39">
-        <v>0.04852662876914452</v>
+        <v>-0.01003656594997697</v>
       </c>
       <c r="D39">
-        <v>-0.01271594786123602</v>
+        <v>0.08583955276470942</v>
       </c>
       <c r="E39">
-        <v>0.02421385790075316</v>
+        <v>0.00761614130047165</v>
       </c>
       <c r="F39">
-        <v>-0.06292261331121264</v>
+        <v>-0.01857426702945922</v>
       </c>
       <c r="G39">
-        <v>-0.0317168940131201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0409473668523504</v>
+      </c>
+      <c r="H39">
+        <v>0.07790060114419509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03189922795375865</v>
+        <v>-0.03113396751049113</v>
       </c>
       <c r="C40">
-        <v>0.07395848919590856</v>
+        <v>-0.002540348414643721</v>
       </c>
       <c r="D40">
-        <v>0.01626194260976945</v>
+        <v>0.03052352713176956</v>
       </c>
       <c r="E40">
-        <v>-0.01213439169798945</v>
+        <v>0.0261190931178372</v>
       </c>
       <c r="F40">
-        <v>-0.07749990471820459</v>
+        <v>-0.03431064257161203</v>
       </c>
       <c r="G40">
-        <v>-0.05252310621608858</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02044293005601043</v>
+      </c>
+      <c r="H40">
+        <v>0.06551135393309317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001397425762887455</v>
+        <v>-0.01138098056534945</v>
       </c>
       <c r="C41">
-        <v>0.0002118341890406285</v>
+        <v>0.003243448247426684</v>
       </c>
       <c r="D41">
-        <v>-0.008877006138517073</v>
+        <v>-0.01519994449077314</v>
       </c>
       <c r="E41">
-        <v>0.001850996027181183</v>
+        <v>0.0006526349233259736</v>
       </c>
       <c r="F41">
-        <v>-0.01817024670961527</v>
+        <v>0.002564236444752059</v>
       </c>
       <c r="G41">
-        <v>-0.04983372823052609</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.001522534551761967</v>
+      </c>
+      <c r="H41">
+        <v>-0.005563748299737208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.352555722139888</v>
+        <v>-0.1695053416440913</v>
       </c>
       <c r="C42">
-        <v>-0.1096846530315318</v>
+        <v>0.06298309479202606</v>
       </c>
       <c r="D42">
-        <v>-0.7838579092124511</v>
+        <v>0.2411862767118441</v>
       </c>
       <c r="E42">
-        <v>-0.3200997093193638</v>
+        <v>0.2040417408264205</v>
       </c>
       <c r="F42">
-        <v>0.2962158262653041</v>
+        <v>0.9029372961074884</v>
       </c>
       <c r="G42">
-        <v>-0.1475217263970316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1815809707632327</v>
+      </c>
+      <c r="H42">
+        <v>0.01008601074134351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0004863886943423472</v>
+        <v>-0.01429832799573264</v>
       </c>
       <c r="C43">
-        <v>-0.0005317328889409184</v>
+        <v>0.003255992077061659</v>
       </c>
       <c r="D43">
-        <v>-0.01230098660460983</v>
+        <v>-0.01334065265367036</v>
       </c>
       <c r="E43">
-        <v>0.001975475896769839</v>
+        <v>0.003634496523722613</v>
       </c>
       <c r="F43">
-        <v>-0.03509845128969864</v>
+        <v>0.004523629533505512</v>
       </c>
       <c r="G43">
-        <v>-0.04778754904436112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.00246143878514097</v>
+      </c>
+      <c r="H43">
+        <v>0.008357793701756083</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01687051468831311</v>
+        <v>-0.02066963948785469</v>
       </c>
       <c r="C44">
-        <v>0.005950913280308349</v>
+        <v>-0.006485730029476865</v>
       </c>
       <c r="D44">
-        <v>-0.01024177947931083</v>
+        <v>0.03267096967484591</v>
       </c>
       <c r="E44">
-        <v>-0.006155626208208187</v>
+        <v>-0.005707378904652171</v>
       </c>
       <c r="F44">
-        <v>-0.1092094266571191</v>
+        <v>-0.002771592543082955</v>
       </c>
       <c r="G44">
-        <v>-0.08683263886631423</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04134589657929755</v>
+      </c>
+      <c r="H44">
+        <v>0.06476370650260303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01993171840665542</v>
+        <v>-0.01629965528967788</v>
       </c>
       <c r="C46">
-        <v>0.02294434258544372</v>
+        <v>0.00431309698841387</v>
       </c>
       <c r="D46">
-        <v>-0.01694169939808121</v>
+        <v>0.01314336682295589</v>
       </c>
       <c r="E46">
-        <v>0.03374439574159901</v>
+        <v>0.001822547175659151</v>
       </c>
       <c r="F46">
-        <v>-0.07364414753142121</v>
+        <v>-0.01167611223117648</v>
       </c>
       <c r="G46">
-        <v>-0.05991224636225179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04413067596297519</v>
+      </c>
+      <c r="H46">
+        <v>0.007334095947653085</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09087848657721455</v>
+        <v>-0.07400246016050745</v>
       </c>
       <c r="C47">
-        <v>0.03671826622711778</v>
+        <v>-0.0288950995566277</v>
       </c>
       <c r="D47">
-        <v>0.006539829130947267</v>
+        <v>0.04706848781079025</v>
       </c>
       <c r="E47">
-        <v>0.02535750309845831</v>
+        <v>-0.001363682684272238</v>
       </c>
       <c r="F47">
-        <v>-0.03898049034178527</v>
+        <v>-0.01490676405972215</v>
       </c>
       <c r="G47">
-        <v>-0.08273318235602405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.009226496457977447</v>
+      </c>
+      <c r="H47">
+        <v>-0.02326292907431515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01794999466781372</v>
+        <v>-0.02125232313933095</v>
       </c>
       <c r="C48">
-        <v>0.01207897056016611</v>
+        <v>-0.005787402385499262</v>
       </c>
       <c r="D48">
-        <v>-0.008378103573810435</v>
+        <v>0.01033835817745007</v>
       </c>
       <c r="E48">
-        <v>0.01984885475006929</v>
+        <v>0.000167468363913039</v>
       </c>
       <c r="F48">
-        <v>-0.04220526741158953</v>
+        <v>-0.007947216505764278</v>
       </c>
       <c r="G48">
-        <v>-0.0242686898294136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02316780308956124</v>
+      </c>
+      <c r="H48">
+        <v>0.01779142431171403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0852208930707785</v>
+        <v>-0.07165563779095062</v>
       </c>
       <c r="C50">
-        <v>0.0358625379770754</v>
+        <v>-0.02599661827061114</v>
       </c>
       <c r="D50">
-        <v>-0.01266081953984353</v>
+        <v>0.04617394901007568</v>
       </c>
       <c r="E50">
-        <v>0.03017063596267472</v>
+        <v>-0.01401074879767833</v>
       </c>
       <c r="F50">
-        <v>-0.04809147644527276</v>
+        <v>-0.008989969812828437</v>
       </c>
       <c r="G50">
-        <v>-0.03505804182190835</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006774371222419109</v>
+      </c>
+      <c r="H50">
+        <v>-0.005689335605191912</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01563143821590425</v>
+        <v>-0.02148741130664713</v>
       </c>
       <c r="C51">
-        <v>-0.003400169858167372</v>
+        <v>0.000445864706579709</v>
       </c>
       <c r="D51">
-        <v>0.003777465329224209</v>
+        <v>0.005144189415587091</v>
       </c>
       <c r="E51">
-        <v>-0.01694300445429331</v>
+        <v>-0.005348535715690561</v>
       </c>
       <c r="F51">
-        <v>-0.09778890856063158</v>
+        <v>-0.004851204654670252</v>
       </c>
       <c r="G51">
-        <v>-0.06648209232123488</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03713724420438991</v>
+      </c>
+      <c r="H51">
+        <v>0.04942182556213884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09853725447332948</v>
+        <v>-0.08890712387549898</v>
       </c>
       <c r="C53">
-        <v>0.04547797887136645</v>
+        <v>-0.03733489491822464</v>
       </c>
       <c r="D53">
-        <v>0.004984164773604086</v>
+        <v>0.08327226083136224</v>
       </c>
       <c r="E53">
-        <v>0.04682753079818453</v>
+        <v>-0.004311281855598038</v>
       </c>
       <c r="F53">
-        <v>0.02347813272054405</v>
+        <v>-0.02903100395733207</v>
       </c>
       <c r="G53">
-        <v>-0.01756604905317711</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03669806116220505</v>
+      </c>
+      <c r="H53">
+        <v>-0.03586496437034932</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01549074213800954</v>
+        <v>-0.02847540666064586</v>
       </c>
       <c r="C54">
-        <v>0.00158670154364286</v>
+        <v>-0.008122066473832486</v>
       </c>
       <c r="D54">
-        <v>0.003716733410561463</v>
+        <v>-0.01329862722695928</v>
       </c>
       <c r="E54">
-        <v>0.03155012939826959</v>
+        <v>-0.006097878957210039</v>
       </c>
       <c r="F54">
-        <v>-0.05525272262880115</v>
+        <v>-0.007959061708007111</v>
       </c>
       <c r="G54">
-        <v>-0.0459978490849494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03917979516909952</v>
+      </c>
+      <c r="H54">
+        <v>0.0007758430766674872</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09939109824099644</v>
+        <v>-0.07504554476875487</v>
       </c>
       <c r="C55">
-        <v>0.02640134870937274</v>
+        <v>-0.03365298961503541</v>
       </c>
       <c r="D55">
-        <v>0.000518125738064941</v>
+        <v>0.07774682321695689</v>
       </c>
       <c r="E55">
-        <v>0.06448779064935149</v>
+        <v>-0.01290334201383783</v>
       </c>
       <c r="F55">
-        <v>0.01560145191781332</v>
+        <v>-0.02071037655752481</v>
       </c>
       <c r="G55">
-        <v>-0.0497297303057857</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01511242941748856</v>
+      </c>
+      <c r="H55">
+        <v>-0.0452929882860445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.141065146987122</v>
+        <v>-0.122803367707869</v>
       </c>
       <c r="C56">
-        <v>0.06268107162365859</v>
+        <v>-0.05556178782883162</v>
       </c>
       <c r="D56">
-        <v>0.0465472712865735</v>
+        <v>0.101306785779386</v>
       </c>
       <c r="E56">
-        <v>0.0710159661059029</v>
+        <v>-0.006071600107302837</v>
       </c>
       <c r="F56">
-        <v>0.05661739554430004</v>
+        <v>-0.0533864858486641</v>
       </c>
       <c r="G56">
-        <v>0.02769184974845286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07129657907799503</v>
+      </c>
+      <c r="H56">
+        <v>-0.06041906584678876</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04486030627681593</v>
+        <v>-0.03753343520717636</v>
       </c>
       <c r="C57">
-        <v>0.01809035562521648</v>
+        <v>0.01100418026995833</v>
       </c>
       <c r="D57">
-        <v>-0.01561533563584628</v>
+        <v>0.03203549144125734</v>
       </c>
       <c r="E57">
-        <v>-0.01794870492960842</v>
+        <v>0.01163332698765371</v>
       </c>
       <c r="F57">
-        <v>-0.04690266036240137</v>
+        <v>-0.006346779433717203</v>
       </c>
       <c r="G57">
-        <v>-0.04758942320191557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.07204310000046277</v>
+      </c>
+      <c r="H57">
+        <v>0.0484268739716236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2106974643067065</v>
+        <v>-0.1387174147839396</v>
       </c>
       <c r="C58">
-        <v>0.1499658441669384</v>
+        <v>-0.04814170083997858</v>
       </c>
       <c r="D58">
-        <v>-0.08497073897758929</v>
+        <v>0.1514548358661524</v>
       </c>
       <c r="E58">
-        <v>0.06838875452119733</v>
+        <v>0.2244234578731785</v>
       </c>
       <c r="F58">
-        <v>-0.4022510254949199</v>
+        <v>0.06019865741777089</v>
       </c>
       <c r="G58">
-        <v>-0.01379613301739659</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8118935485641391</v>
+      </c>
+      <c r="H58">
+        <v>-0.3928931499989451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0572769773420035</v>
+        <v>-0.1652478650492998</v>
       </c>
       <c r="C59">
-        <v>-0.05750533971848074</v>
+        <v>0.0006075210750592161</v>
       </c>
       <c r="D59">
-        <v>0.1012077434610376</v>
+        <v>-0.2190871559062093</v>
       </c>
       <c r="E59">
-        <v>-0.1522453184105083</v>
+        <v>0.01235214893323679</v>
       </c>
       <c r="F59">
-        <v>-0.06498851589876364</v>
+        <v>0.002391224571939145</v>
       </c>
       <c r="G59">
-        <v>0.02368319730101268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01937259480137411</v>
+      </c>
+      <c r="H59">
+        <v>0.02697270845382627</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.150089176591688</v>
+        <v>-0.1909832249462019</v>
       </c>
       <c r="C60">
-        <v>0.09317977035072599</v>
+        <v>-0.02820171368167875</v>
       </c>
       <c r="D60">
-        <v>-0.02092756746347891</v>
+        <v>0.02405125005797477</v>
       </c>
       <c r="E60">
-        <v>-0.111276045390234</v>
+        <v>0.052474865393228</v>
       </c>
       <c r="F60">
-        <v>-0.1569270793783245</v>
+        <v>-0.05652294093289355</v>
       </c>
       <c r="G60">
-        <v>0.3066046182682908</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.02697805326534343</v>
+      </c>
+      <c r="H60">
+        <v>0.3718506877940482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02126587977927381</v>
+        <v>-0.02401826987289384</v>
       </c>
       <c r="C61">
-        <v>0.02663010582163346</v>
+        <v>-0.01188794318316518</v>
       </c>
       <c r="D61">
-        <v>-0.01259939713342868</v>
+        <v>0.05277370984098655</v>
       </c>
       <c r="E61">
-        <v>0.01982960399684245</v>
+        <v>-0.00152529953833697</v>
       </c>
       <c r="F61">
-        <v>-0.02853856419901084</v>
+        <v>-0.02065485378103708</v>
       </c>
       <c r="G61">
-        <v>-0.01608784751182771</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.025181436870062</v>
+      </c>
+      <c r="H61">
+        <v>0.05797464081428574</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.009096058852816152</v>
+        <v>-0.01292455219026731</v>
       </c>
       <c r="C63">
-        <v>0.01844442926145318</v>
+        <v>0.0008172144694800659</v>
       </c>
       <c r="D63">
-        <v>-0.01894350821339823</v>
+        <v>0.02167641083384672</v>
       </c>
       <c r="E63">
-        <v>0.02472080117091447</v>
+        <v>-0.004360270809556505</v>
       </c>
       <c r="F63">
-        <v>-0.0148928211443805</v>
+        <v>-0.01087075345364436</v>
       </c>
       <c r="G63">
-        <v>-0.07166574766975997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01695161357640768</v>
+      </c>
+      <c r="H63">
+        <v>0.01241905733319333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03711781669143284</v>
+        <v>-0.04141489878219325</v>
       </c>
       <c r="C64">
-        <v>0.002642045392091497</v>
+        <v>-0.01132328858344767</v>
       </c>
       <c r="D64">
-        <v>0.003367636753929297</v>
+        <v>0.03762622574416977</v>
       </c>
       <c r="E64">
-        <v>0.05315230018378636</v>
+        <v>-0.01101361728324945</v>
       </c>
       <c r="F64">
-        <v>-0.0436884403258835</v>
+        <v>-0.00505950211334059</v>
       </c>
       <c r="G64">
-        <v>-0.05590484435714899</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.005626658328670441</v>
+      </c>
+      <c r="H64">
+        <v>0.04178592388856865</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03202906394514097</v>
+        <v>-0.03954891600643665</v>
       </c>
       <c r="C65">
-        <v>0.01451673406166978</v>
+        <v>-0.004424349093008998</v>
       </c>
       <c r="D65">
-        <v>-0.002996934991789322</v>
+        <v>0.07116906317956154</v>
       </c>
       <c r="E65">
-        <v>0.02233158590315192</v>
+        <v>-0.007532600539534203</v>
       </c>
       <c r="F65">
-        <v>-0.007641100500722923</v>
+        <v>-0.03913896258639381</v>
       </c>
       <c r="G65">
-        <v>0.01904983313439258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.003756417029659563</v>
+      </c>
+      <c r="H65">
+        <v>0.07403043719773815</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03288215028325605</v>
+        <v>-0.02883993630374274</v>
       </c>
       <c r="C66">
-        <v>0.06128588670269947</v>
+        <v>-0.01783072594510809</v>
       </c>
       <c r="D66">
-        <v>-0.0112484763394101</v>
+        <v>0.1061175070328952</v>
       </c>
       <c r="E66">
-        <v>0.03620339015980437</v>
+        <v>0.009779981509878081</v>
       </c>
       <c r="F66">
-        <v>-0.04597943001778864</v>
+        <v>-0.03891589613998885</v>
       </c>
       <c r="G66">
-        <v>-0.0147052435489963</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03764145043282625</v>
+      </c>
+      <c r="H66">
+        <v>0.08259468179449639</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01122787937243158</v>
+        <v>-0.04691595755871928</v>
       </c>
       <c r="C67">
-        <v>0.001325121693757004</v>
+        <v>-0.01841239810255394</v>
       </c>
       <c r="D67">
-        <v>-0.009398118492168052</v>
+        <v>0.01185431353613123</v>
       </c>
       <c r="E67">
-        <v>-0.03303854716415416</v>
+        <v>0.003547263881673793</v>
       </c>
       <c r="F67">
-        <v>-0.0200462147106207</v>
+        <v>-0.01988785557148885</v>
       </c>
       <c r="G67">
-        <v>-0.003103316846101423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01224049186218012</v>
+      </c>
+      <c r="H67">
+        <v>0.04569800279533057</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07443490526404331</v>
+        <v>-0.1599618803485527</v>
       </c>
       <c r="C68">
-        <v>-0.08337031063388786</v>
+        <v>0.02482167052901401</v>
       </c>
       <c r="D68">
-        <v>0.1139037878791766</v>
+        <v>-0.2359579940101228</v>
       </c>
       <c r="E68">
-        <v>-0.1512525040352574</v>
+        <v>0.008285514562661559</v>
       </c>
       <c r="F68">
-        <v>-0.06091616398381695</v>
+        <v>0.03806593639358384</v>
       </c>
       <c r="G68">
-        <v>0.06511509753420991</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02660122442728409</v>
+      </c>
+      <c r="H68">
+        <v>-0.04899504667285937</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06534215393368298</v>
+        <v>-0.06205109661670451</v>
       </c>
       <c r="C69">
-        <v>0.04417216253077835</v>
+        <v>-0.02955652141120211</v>
       </c>
       <c r="D69">
-        <v>0.01439986232852259</v>
+        <v>0.04389444039908739</v>
       </c>
       <c r="E69">
-        <v>0.01283237940308406</v>
+        <v>-0.0004268475381370334</v>
       </c>
       <c r="F69">
-        <v>-0.02254607304020027</v>
+        <v>-0.02663486566037718</v>
       </c>
       <c r="G69">
-        <v>-0.07733039455924501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01383884236462946</v>
+      </c>
+      <c r="H69">
+        <v>0.006668897861097735</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07842630137132095</v>
+        <v>-0.1493946791364199</v>
       </c>
       <c r="C71">
-        <v>-0.08440804566699656</v>
+        <v>0.0114481598187819</v>
       </c>
       <c r="D71">
-        <v>0.09186523456932753</v>
+        <v>-0.1965333413800161</v>
       </c>
       <c r="E71">
-        <v>-0.2052587472441751</v>
+        <v>0.01549775186074167</v>
       </c>
       <c r="F71">
-        <v>-0.05066194459432744</v>
+        <v>0.04628848102260032</v>
       </c>
       <c r="G71">
-        <v>-0.01006988475615976</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03075561355365969</v>
+      </c>
+      <c r="H71">
+        <v>-0.0227290691992721</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1081304960553466</v>
+        <v>-0.07832678517865967</v>
       </c>
       <c r="C72">
-        <v>0.08267291341926133</v>
+        <v>-0.04046719608260209</v>
       </c>
       <c r="D72">
-        <v>0.03880184401352255</v>
+        <v>0.07560661183717518</v>
       </c>
       <c r="E72">
-        <v>0.03196010699070301</v>
+        <v>0.01758514959205909</v>
       </c>
       <c r="F72">
-        <v>-0.08355553969080601</v>
+        <v>-0.07282262868570559</v>
       </c>
       <c r="G72">
-        <v>0.1090447465713692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02685365352928313</v>
+      </c>
+      <c r="H72">
+        <v>0.132883769589129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2142176971780429</v>
+        <v>-0.2569259059178822</v>
       </c>
       <c r="C73">
-        <v>0.1256047986222843</v>
+        <v>-0.04298103290574267</v>
       </c>
       <c r="D73">
-        <v>-0.03037175207633444</v>
+        <v>0.0861294285240962</v>
       </c>
       <c r="E73">
-        <v>-0.2025293367290318</v>
+        <v>0.09299242394676134</v>
       </c>
       <c r="F73">
-        <v>-0.1866071874666376</v>
+        <v>-0.06514622758812648</v>
       </c>
       <c r="G73">
-        <v>0.4462342173467858</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.04363434876873831</v>
+      </c>
+      <c r="H73">
+        <v>0.4813919241053013</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1349479860657062</v>
+        <v>-0.118708734932257</v>
       </c>
       <c r="C74">
-        <v>0.0349853699446149</v>
+        <v>-0.05447601110256368</v>
       </c>
       <c r="D74">
-        <v>0.01300967771253659</v>
+        <v>0.1063903663104015</v>
       </c>
       <c r="E74">
-        <v>0.05170387081560666</v>
+        <v>-0.008538522035635427</v>
       </c>
       <c r="F74">
-        <v>0.07313049094868915</v>
+        <v>-0.03564667836837677</v>
       </c>
       <c r="G74">
-        <v>-0.005129350224669177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05944589258490584</v>
+      </c>
+      <c r="H74">
+        <v>-0.02691719545985151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2244860431770131</v>
+        <v>-0.2285891605187981</v>
       </c>
       <c r="C75">
-        <v>0.1039567982347054</v>
+        <v>-0.1010811678971925</v>
       </c>
       <c r="D75">
-        <v>0.09331525466863703</v>
+        <v>0.1622174631291683</v>
       </c>
       <c r="E75">
-        <v>0.09955006588574081</v>
+        <v>0.01042174720538638</v>
       </c>
       <c r="F75">
-        <v>0.08092305480129987</v>
+        <v>-0.09995238742645772</v>
       </c>
       <c r="G75">
-        <v>-0.01056768430791902</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1213347919175444</v>
+      </c>
+      <c r="H75">
+        <v>-0.1339998142659412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.275967424061258</v>
+        <v>-0.1943425955320865</v>
       </c>
       <c r="C76">
-        <v>0.1000595317963997</v>
+        <v>-0.09351391367687506</v>
       </c>
       <c r="D76">
-        <v>0.1243648271064551</v>
+        <v>0.1585631645217913</v>
       </c>
       <c r="E76">
-        <v>0.1506096875871869</v>
+        <v>-0.03749462469723706</v>
       </c>
       <c r="F76">
-        <v>0.1649766871569005</v>
+        <v>-0.09169146203766998</v>
       </c>
       <c r="G76">
-        <v>0.01236993305977686</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1180291628989632</v>
+      </c>
+      <c r="H76">
+        <v>-0.1338581429968877</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1303081460229979</v>
+        <v>-0.07108788324505541</v>
       </c>
       <c r="C77">
-        <v>0.06802674082321383</v>
+        <v>-0.01467706681113702</v>
       </c>
       <c r="D77">
-        <v>-0.08189732787630921</v>
+        <v>0.0766028532943937</v>
       </c>
       <c r="E77">
-        <v>0.03950456030038685</v>
+        <v>0.01638710521044225</v>
       </c>
       <c r="F77">
-        <v>-0.1821418555324169</v>
+        <v>0.01282888275931713</v>
       </c>
       <c r="G77">
-        <v>-0.235948771984992</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.08328317785895893</v>
+      </c>
+      <c r="H77">
+        <v>0.01290320022437362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0737138939058524</v>
+        <v>-0.04031913584292003</v>
       </c>
       <c r="C78">
-        <v>0.05591888085531724</v>
+        <v>-0.01538250645919719</v>
       </c>
       <c r="D78">
-        <v>-0.03996125507422075</v>
+        <v>0.06577718666802769</v>
       </c>
       <c r="E78">
-        <v>0.07041734116365059</v>
+        <v>-0.000247174454978189</v>
       </c>
       <c r="F78">
-        <v>-0.1106161273146116</v>
+        <v>-0.02227317523593347</v>
       </c>
       <c r="G78">
-        <v>-0.03522583574449548</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06575011536037426</v>
+      </c>
+      <c r="H78">
+        <v>0.08431136323090085</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.26543468587032</v>
+        <v>-0.1417824820088474</v>
       </c>
       <c r="C80">
-        <v>-0.8224817629677726</v>
+        <v>-0.03662142144023318</v>
       </c>
       <c r="D80">
-        <v>-0.02958462521390057</v>
+        <v>0.07669749133129074</v>
       </c>
       <c r="E80">
-        <v>0.4325794486850735</v>
+        <v>-0.9339686462509535</v>
       </c>
       <c r="F80">
-        <v>-0.1280442736751212</v>
+        <v>0.2077917337221937</v>
       </c>
       <c r="G80">
-        <v>0.1342731432951417</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1730409734067559</v>
+      </c>
+      <c r="H80">
+        <v>0.004063151246042676</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.176397056551302</v>
+        <v>-0.1542601993856525</v>
       </c>
       <c r="C81">
-        <v>0.07273852145796733</v>
+        <v>-0.06643129142771161</v>
       </c>
       <c r="D81">
-        <v>0.08987823527926103</v>
+        <v>0.1034445119051217</v>
       </c>
       <c r="E81">
-        <v>0.08574531539646664</v>
+        <v>-0.009566838409993752</v>
       </c>
       <c r="F81">
-        <v>0.1006272306128068</v>
+        <v>-0.06728883535707009</v>
       </c>
       <c r="G81">
-        <v>0.01777773156467867</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08248499837998009</v>
+      </c>
+      <c r="H81">
+        <v>-0.08885244159550355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03452394667670956</v>
+        <v>-0.03304915576529137</v>
       </c>
       <c r="C83">
-        <v>0.03120323124236338</v>
+        <v>-0.006519169936930391</v>
       </c>
       <c r="D83">
-        <v>-0.02020060222228268</v>
+        <v>0.02436776482360329</v>
       </c>
       <c r="E83">
-        <v>-0.005093492850895986</v>
+        <v>0.008200143331704794</v>
       </c>
       <c r="F83">
-        <v>-0.05844533638177198</v>
+        <v>-0.009268670008595161</v>
       </c>
       <c r="G83">
-        <v>-0.04511629777582121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04867480130234678</v>
+      </c>
+      <c r="H83">
+        <v>0.03978358495969024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2572163702509762</v>
+        <v>-0.2141420728128447</v>
       </c>
       <c r="C85">
-        <v>0.1021018713862318</v>
+        <v>-0.08551663123188502</v>
       </c>
       <c r="D85">
-        <v>0.09669841707062042</v>
+        <v>0.169027577862495</v>
       </c>
       <c r="E85">
-        <v>0.1118586767956722</v>
+        <v>0.003650736455033953</v>
       </c>
       <c r="F85">
-        <v>0.1097447656011978</v>
+        <v>-0.08341657439989378</v>
       </c>
       <c r="G85">
-        <v>-0.01947549824762822</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1321773137305308</v>
+      </c>
+      <c r="H85">
+        <v>-0.09430739045703676</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.005636515278194038</v>
+        <v>-0.02704823764020575</v>
       </c>
       <c r="C86">
-        <v>0.001351634233698038</v>
+        <v>-0.004660526761512975</v>
       </c>
       <c r="D86">
-        <v>-0.02717283504497803</v>
+        <v>0.03409085702406515</v>
       </c>
       <c r="E86">
-        <v>0.02981812899756351</v>
+        <v>0.0005455216404627662</v>
       </c>
       <c r="F86">
-        <v>-0.07836455359219234</v>
+        <v>0.0002166196487089558</v>
       </c>
       <c r="G86">
-        <v>-0.05499322229870818</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05492813733453985</v>
+      </c>
+      <c r="H86">
+        <v>0.0939607033802228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04244240821854747</v>
+        <v>-0.02642743456879363</v>
       </c>
       <c r="C87">
-        <v>0.0045930176500502</v>
+        <v>-0.005227243458864461</v>
       </c>
       <c r="D87">
-        <v>-0.02093767209097965</v>
+        <v>0.04563746620568367</v>
       </c>
       <c r="E87">
-        <v>0.009980249105890498</v>
+        <v>-0.00318367112041443</v>
       </c>
       <c r="F87">
-        <v>-0.1096537251602473</v>
+        <v>-0.006592417072277463</v>
       </c>
       <c r="G87">
-        <v>-0.04506906997933743</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08145449568452216</v>
+      </c>
+      <c r="H87">
+        <v>0.07961759454354768</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01240554608849059</v>
+        <v>-0.04375265120159022</v>
       </c>
       <c r="C88">
-        <v>-0.01483974685094485</v>
+        <v>0.009320242887981682</v>
       </c>
       <c r="D88">
-        <v>0.01646903880798304</v>
+        <v>0.0188489385561618</v>
       </c>
       <c r="E88">
-        <v>0.0172694908518614</v>
+        <v>-0.01210682430095798</v>
       </c>
       <c r="F88">
-        <v>-0.004235163987030366</v>
+        <v>-0.01947810275772412</v>
       </c>
       <c r="G88">
-        <v>-0.05819815868019276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.002101010773586863</v>
+      </c>
+      <c r="H88">
+        <v>0.01923417741186354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1101694017776525</v>
+        <v>-0.2588897995211805</v>
       </c>
       <c r="C89">
-        <v>-0.1177154460932917</v>
+        <v>0.0225503130212443</v>
       </c>
       <c r="D89">
-        <v>0.1669061986689981</v>
+        <v>-0.3493133665203166</v>
       </c>
       <c r="E89">
-        <v>-0.2579893838068544</v>
+        <v>0.01900052211746894</v>
       </c>
       <c r="F89">
-        <v>-0.1016048641510378</v>
+        <v>0.02449551960391379</v>
       </c>
       <c r="G89">
-        <v>-0.002216673852722864</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0001994115298739749</v>
+      </c>
+      <c r="H89">
+        <v>0.01007969853888664</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09409104734752202</v>
+        <v>-0.2101428878397518</v>
       </c>
       <c r="C90">
-        <v>-0.1702900116353694</v>
+        <v>0.0215456441875201</v>
       </c>
       <c r="D90">
-        <v>0.1871663643546042</v>
+        <v>-0.3161944711813298</v>
       </c>
       <c r="E90">
-        <v>-0.2684240869111404</v>
+        <v>0.01082880696218464</v>
       </c>
       <c r="F90">
-        <v>-0.04976060465639933</v>
+        <v>0.05090219165286559</v>
       </c>
       <c r="G90">
-        <v>-0.04162095360595489</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01057542008177993</v>
+      </c>
+      <c r="H90">
+        <v>-0.05315537790357557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3027607105502479</v>
+        <v>-0.2288150498722814</v>
       </c>
       <c r="C91">
-        <v>0.1305573773919647</v>
+        <v>-0.09744978137586648</v>
       </c>
       <c r="D91">
-        <v>0.09310679418433088</v>
+        <v>0.1484968321136679</v>
       </c>
       <c r="E91">
-        <v>0.1117895542214994</v>
+        <v>0.009573007508046707</v>
       </c>
       <c r="F91">
-        <v>0.2179623746038118</v>
+        <v>-0.0824680445410348</v>
       </c>
       <c r="G91">
-        <v>0.02915342271481616</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1413817568394209</v>
+      </c>
+      <c r="H91">
+        <v>-0.1683526204299003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1830034668450919</v>
+        <v>-0.2547558064105389</v>
       </c>
       <c r="C92">
-        <v>-0.1189882228621807</v>
+        <v>-0.04660917046798003</v>
       </c>
       <c r="D92">
-        <v>0.3332206144692332</v>
+        <v>-0.2411875972854377</v>
       </c>
       <c r="E92">
-        <v>-0.2550626258864238</v>
+        <v>0.0001580313019281524</v>
       </c>
       <c r="F92">
-        <v>0.1812467610218761</v>
+        <v>-0.00250846042809537</v>
       </c>
       <c r="G92">
-        <v>-0.4843841495247344</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01542125161926914</v>
+      </c>
+      <c r="H92">
+        <v>-0.122488477555838</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09966613132006159</v>
+        <v>-0.2350940169187673</v>
       </c>
       <c r="C93">
-        <v>-0.161805920317368</v>
+        <v>0.01205828375098634</v>
       </c>
       <c r="D93">
-        <v>0.2086185574763236</v>
+        <v>-0.3241061873922024</v>
       </c>
       <c r="E93">
-        <v>-0.3725825211632167</v>
+        <v>0.03223037442468097</v>
       </c>
       <c r="F93">
-        <v>0.003076436922005544</v>
+        <v>0.05353848535823656</v>
       </c>
       <c r="G93">
-        <v>0.04757451687437848</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.006862557892869387</v>
+      </c>
+      <c r="H93">
+        <v>0.01074919618842175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2977716222011536</v>
+        <v>-0.2810827787820414</v>
       </c>
       <c r="C94">
-        <v>0.1593573096512181</v>
+        <v>-0.09317139839359272</v>
       </c>
       <c r="D94">
-        <v>0.1861485681097711</v>
+        <v>0.1427440713901257</v>
       </c>
       <c r="E94">
-        <v>0.1270698123221068</v>
+        <v>0.02941794236626677</v>
       </c>
       <c r="F94">
-        <v>0.1666475731114132</v>
+        <v>-0.176653811129459</v>
       </c>
       <c r="G94">
-        <v>0.04563396133527947</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2421254778125657</v>
+      </c>
+      <c r="H94">
+        <v>-0.2848319780666847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.04681311592385465</v>
+        <v>-0.05537532043310551</v>
       </c>
       <c r="C95">
-        <v>0.055401827314412</v>
+        <v>-0.03534947416153098</v>
       </c>
       <c r="D95">
-        <v>-0.04646773858872757</v>
+        <v>0.08443850123144579</v>
       </c>
       <c r="E95">
-        <v>0.06264014505004831</v>
+        <v>0.08322191134908222</v>
       </c>
       <c r="F95">
-        <v>-0.07018207785975182</v>
+        <v>0.004486199271596176</v>
       </c>
       <c r="G95">
-        <v>-0.2082526029791518</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05098865064537769</v>
+      </c>
+      <c r="H95">
+        <v>0.05383314687967036</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1645850690821401</v>
+        <v>-0.1827542653553887</v>
       </c>
       <c r="C98">
-        <v>0.05426836133197453</v>
+        <v>-0.05641487733230901</v>
       </c>
       <c r="D98">
-        <v>-0.0405260803318611</v>
+        <v>0.03450457042659299</v>
       </c>
       <c r="E98">
-        <v>-0.1431645446488483</v>
+        <v>0.05564255490315851</v>
       </c>
       <c r="F98">
-        <v>-0.1051237377736876</v>
+        <v>-0.009021456414227998</v>
       </c>
       <c r="G98">
-        <v>0.3519488137769497</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08006014928221068</v>
+      </c>
+      <c r="H98">
+        <v>0.3414446277253435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005005490750201</v>
+        <v>-0.01783761295999466</v>
       </c>
       <c r="C101">
-        <v>0.02060586487745916</v>
+        <v>-0.0005550202311528005</v>
       </c>
       <c r="D101">
-        <v>-0.01336743253015572</v>
+        <v>0.01300077988419587</v>
       </c>
       <c r="E101">
-        <v>0.06432864849095107</v>
+        <v>-0.00204611963285214</v>
       </c>
       <c r="F101">
-        <v>-0.1750782597116788</v>
+        <v>-0.01993083788272594</v>
       </c>
       <c r="G101">
-        <v>-0.09132373075760453</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.101625384362178</v>
+      </c>
+      <c r="H101">
+        <v>-0.02195804571804123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.114406553162145</v>
+        <v>-0.1022544263970843</v>
       </c>
       <c r="C102">
-        <v>0.05115185616416786</v>
+        <v>-0.03398897634148068</v>
       </c>
       <c r="D102">
-        <v>0.03861082810443442</v>
+        <v>0.08290007898997291</v>
       </c>
       <c r="E102">
-        <v>0.07234614372677983</v>
+        <v>-0.003519236472905265</v>
       </c>
       <c r="F102">
-        <v>0.0774419868866596</v>
+        <v>-0.04672787395997813</v>
       </c>
       <c r="G102">
-        <v>0.006973706899768808</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07105634708954101</v>
+      </c>
+      <c r="H102">
+        <v>-0.06508459979473151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04409181343631183</v>
+        <v>-0.01545802166381131</v>
       </c>
       <c r="C103">
-        <v>0.01282471130842488</v>
+        <v>-0.006259088439554517</v>
       </c>
       <c r="D103">
-        <v>0.01349153184459562</v>
+        <v>0.01544622483667976</v>
       </c>
       <c r="E103">
-        <v>0.05148805826493369</v>
+        <v>-0.008312062291609268</v>
       </c>
       <c r="F103">
-        <v>-0.01124935764372662</v>
+        <v>-0.00670703521644214</v>
       </c>
       <c r="G103">
-        <v>-0.03943680500649674</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0018707120568264</v>
+      </c>
+      <c r="H103">
+        <v>-0.01264712874369677</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1872659165565403</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9559748397195147</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1460088260741312</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02791731650822628</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1319526118149409</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01474499207589322</v>
+      </c>
+      <c r="H104">
+        <v>-0.04933424415351541</v>
       </c>
     </row>
   </sheetData>
